--- a/Assets/Editor/關卡管理.xlsx
+++ b/Assets/Editor/關卡管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Portfolio\bilibili_WorkerXiaoqi\ZombieWar\ZombieWarPJ\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C488819-6ADA-4D12-82C2-6B0C22F9DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80220974-0C32-465D-B99A-0E4D9FE74165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +105,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,6 +156,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -412,11 +464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -451,188 +503,409 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
         <v>9</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
+        <v>12</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Editor/關卡管理.xlsx
+++ b/Assets/Editor/關卡管理.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Portfolio\bilibili_WorkerXiaoqi\ZombieWar\ZombieWarPJ\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80220974-0C32-465D-B99A-0E4D9FE74165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2931C5D9-EB7D-4E6F-85F0-427105F0375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="殭屍" sheetId="1" r:id="rId1"/>
+    <sheet name="資訊" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +74,24 @@
   <si>
     <t>生成怪物位置(第幾行)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關卡ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關卡名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關卡進度條</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelId</t>
+  </si>
+  <si>
+    <t>levelName</t>
   </si>
 </sst>
 </file>
@@ -908,4 +927,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8150E4E-F8C8-4A80-880F-5E9C843C273C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Editor/關卡管理.xlsx
+++ b/Assets/Editor/關卡管理.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Portfolio\bilibili_WorkerXiaoqi\ZombieWar\ZombieWarPJ\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2931C5D9-EB7D-4E6F-85F0-427105F0375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B140C1DB-6EB7-4249-9D3B-A92B364731B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="殭屍" sheetId="1" r:id="rId1"/>
-    <sheet name="資訊" sheetId="2" r:id="rId2"/>
+    <sheet name="Level1" sheetId="1" r:id="rId1"/>
+    <sheet name="Level2" sheetId="3" r:id="rId2"/>
+    <sheet name="資訊" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,9 +486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -930,6 +931,711 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A31764A-BA63-4AA9-AD2E-42866B7EC160}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11">
+        <v>8</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11">
+        <v>9</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11">
+        <v>12</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11">
+        <v>13</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11">
+        <v>14</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11">
+        <v>15</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="11">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11">
+        <v>16</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11">
+        <v>16</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8150E4E-F8C8-4A80-880F-5E9C843C273C}">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/Assets/Editor/關卡管理.xlsx
+++ b/Assets/Editor/關卡管理.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Portfolio\bilibili_WorkerXiaoqi\ZombieWar\ZombieWarPJ\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B140C1DB-6EB7-4249-9D3B-A92B364731B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782762E-8142-409F-9680-B169AB1B7F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
     <sheet name="Level2" sheetId="3" r:id="rId2"/>
-    <sheet name="資訊" sheetId="2" r:id="rId3"/>
+    <sheet name="Level3" sheetId="4" r:id="rId3"/>
+    <sheet name="資訊" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -934,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A31764A-BA63-4AA9-AD2E-42866B7EC160}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1636,6 +1637,1031 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB661E0-1417-46B7-B48C-70A7D7F771A1}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>13</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>16</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>19</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>21</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>23</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>24</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11">
+        <v>3</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>3</v>
+      </c>
+      <c r="C29" s="11">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11">
+        <v>4</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11">
+        <v>6</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>3</v>
+      </c>
+      <c r="C32" s="11">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11">
+        <v>7</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10">
+        <v>3</v>
+      </c>
+      <c r="C33" s="11">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11">
+        <v>8</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10">
+        <v>3</v>
+      </c>
+      <c r="C34" s="11">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11">
+        <v>9</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10">
+        <v>3</v>
+      </c>
+      <c r="C35" s="11">
+        <v>3</v>
+      </c>
+      <c r="D35" s="11">
+        <v>10</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11">
+        <v>3</v>
+      </c>
+      <c r="D36" s="11">
+        <v>11</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10">
+        <v>3</v>
+      </c>
+      <c r="C37" s="11">
+        <v>3</v>
+      </c>
+      <c r="D37" s="11">
+        <v>12</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10">
+        <v>3</v>
+      </c>
+      <c r="C38" s="11">
+        <v>3</v>
+      </c>
+      <c r="D38" s="11">
+        <v>13</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10">
+        <v>3</v>
+      </c>
+      <c r="C39" s="11">
+        <v>3</v>
+      </c>
+      <c r="D39" s="11">
+        <v>14</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10">
+        <v>3</v>
+      </c>
+      <c r="C40" s="11">
+        <v>3</v>
+      </c>
+      <c r="D40" s="11">
+        <v>15</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10">
+        <v>3</v>
+      </c>
+      <c r="C41" s="11">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11">
+        <v>16</v>
+      </c>
+      <c r="E41" s="11">
+        <v>1</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10">
+        <v>3</v>
+      </c>
+      <c r="C42" s="11">
+        <v>3</v>
+      </c>
+      <c r="D42" s="11">
+        <v>16</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10">
+        <v>3</v>
+      </c>
+      <c r="C43" s="11">
+        <v>3</v>
+      </c>
+      <c r="D43" s="11">
+        <v>17</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10">
+        <v>3</v>
+      </c>
+      <c r="C44" s="11">
+        <v>3</v>
+      </c>
+      <c r="D44" s="11">
+        <v>18</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10">
+        <v>3</v>
+      </c>
+      <c r="C45" s="11">
+        <v>3</v>
+      </c>
+      <c r="D45" s="11">
+        <v>19</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11">
+        <v>3</v>
+      </c>
+      <c r="D46" s="11">
+        <v>20</v>
+      </c>
+      <c r="E46" s="11">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10">
+        <v>3</v>
+      </c>
+      <c r="C47" s="11">
+        <v>3</v>
+      </c>
+      <c r="D47" s="11">
+        <v>21</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>46</v>
+      </c>
+      <c r="B48" s="10">
+        <v>3</v>
+      </c>
+      <c r="C48" s="11">
+        <v>3</v>
+      </c>
+      <c r="D48" s="11">
+        <v>22</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>47</v>
+      </c>
+      <c r="B49" s="10">
+        <v>3</v>
+      </c>
+      <c r="C49" s="11">
+        <v>3</v>
+      </c>
+      <c r="D49" s="11">
+        <v>23</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10">
+        <v>3</v>
+      </c>
+      <c r="C50" s="11">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11">
+        <v>24</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8150E4E-F8C8-4A80-880F-5E9C843C273C}">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/Assets/Editor/關卡管理.xlsx
+++ b/Assets/Editor/關卡管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Portfolio\bilibili_WorkerXiaoqi\ZombieWar\ZombieWarPJ\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782762E-8142-409F-9680-B169AB1B7F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1CBD7C-60FF-4B50-9BF4-F604BEF667B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -487,9 +487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="11">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="11">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="11">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="11">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -1640,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB661E0-1417-46B7-B48C-70A7D7F771A1}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/關卡管理.xlsx
+++ b/Assets/Editor/關卡管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Portfolio\bilibili_WorkerXiaoqi\ZombieWar\ZombieWarPJ\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1CBD7C-60FF-4B50-9BF4-F604BEF667B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E56941-FD88-42CF-BCC7-0CBC8AE0317C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -485,9 +485,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -601,27 +601,27 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -635,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -655,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -675,33 +675,33 @@
         <v>2</v>
       </c>
       <c r="D9" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -715,13 +715,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -735,13 +735,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
       </c>
       <c r="F12" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -755,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -775,13 +775,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
       </c>
       <c r="F14" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -795,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
       </c>
       <c r="F15" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -815,13 +815,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
       </c>
       <c r="F16" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -835,93 +835,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
       </c>
       <c r="F17" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
-        <v>3</v>
-      </c>
-      <c r="D18" s="11">
-        <v>22</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11">
-        <v>3</v>
-      </c>
-      <c r="D19" s="11">
-        <v>25</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11">
-        <v>3</v>
-      </c>
-      <c r="D20" s="11">
-        <v>28</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11">
-        <v>31</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -933,10 +853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A31764A-BA63-4AA9-AD2E-42866B7EC160}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1006,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1026,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1046,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1086,66 +1006,66 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1160,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -1180,13 +1100,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1200,13 +1120,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
       </c>
       <c r="F13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1220,113 +1140,113 @@
         <v>2</v>
       </c>
       <c r="D14" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8">
-        <v>19</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8">
-        <v>20</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>4</v>
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1340,13 +1260,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
       </c>
       <c r="F20" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1360,13 +1280,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
       </c>
       <c r="F21" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1380,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
@@ -1400,13 +1320,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
       </c>
       <c r="F23" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1420,13 +1340,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E24" s="11">
         <v>1</v>
       </c>
       <c r="F24" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1440,193 +1360,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E25" s="11">
         <v>1</v>
       </c>
       <c r="F25" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11">
-        <v>2</v>
-      </c>
-      <c r="C26" s="11">
-        <v>3</v>
-      </c>
-      <c r="D26" s="11">
-        <v>9</v>
-      </c>
-      <c r="E26" s="11">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11">
-        <v>2</v>
-      </c>
-      <c r="C27" s="11">
-        <v>3</v>
-      </c>
-      <c r="D27" s="11">
-        <v>10</v>
-      </c>
-      <c r="E27" s="11">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="11">
-        <v>2</v>
-      </c>
-      <c r="C28" s="11">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11">
-        <v>11</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11">
-        <v>3</v>
-      </c>
-      <c r="D29" s="11">
-        <v>12</v>
-      </c>
-      <c r="E29" s="11">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11">
-        <v>2</v>
-      </c>
-      <c r="C30" s="11">
-        <v>3</v>
-      </c>
-      <c r="D30" s="11">
-        <v>13</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="11">
-        <v>2</v>
-      </c>
-      <c r="C31" s="11">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11">
-        <v>14</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="11">
-        <v>2</v>
-      </c>
-      <c r="C32" s="11">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11">
-        <v>15</v>
-      </c>
-      <c r="E32" s="11">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>31</v>
-      </c>
-      <c r="B33" s="11">
-        <v>2</v>
-      </c>
-      <c r="C33" s="11">
-        <v>3</v>
-      </c>
-      <c r="D33" s="11">
-        <v>16</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="11">
-        <v>2</v>
-      </c>
-      <c r="C34" s="11">
-        <v>3</v>
-      </c>
-      <c r="D34" s="11">
-        <v>16</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB661E0-1417-46B7-B48C-70A7D7F771A1}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1731,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1751,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1771,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1791,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1811,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1831,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1851,67 +1591,67 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1925,13 +1665,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1945,13 +1685,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
       </c>
       <c r="F15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1965,13 +1705,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1985,13 +1725,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
       </c>
       <c r="F17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2005,13 +1745,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2025,13 +1765,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
       </c>
       <c r="F19" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2045,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
       </c>
       <c r="F20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2065,133 +1805,133 @@
         <v>2</v>
       </c>
       <c r="D21" s="8">
+        <v>24</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="B22" s="10">
+        <v>3</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="10">
+        <v>3</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="B25" s="10">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="B26" s="10">
+        <v>3</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7">
-        <v>3</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8">
-        <v>26</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2</v>
-      </c>
-      <c r="D27" s="8">
-        <v>27</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-      <c r="F27" s="7">
-        <v>4</v>
+      <c r="B27" s="10">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11">
+        <v>8</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2205,13 +1945,13 @@
         <v>3</v>
       </c>
       <c r="D28" s="11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E28" s="11">
         <v>1</v>
       </c>
       <c r="F28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2225,13 +1965,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E29" s="11">
         <v>1</v>
       </c>
       <c r="F29" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2245,13 +1985,13 @@
         <v>3</v>
       </c>
       <c r="D30" s="11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
       </c>
       <c r="F30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2265,13 +2005,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
       </c>
       <c r="F31" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2285,13 +2025,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
       </c>
       <c r="F32" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2305,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E33" s="11">
         <v>1</v>
@@ -2325,13 +2065,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E34" s="11">
         <v>1</v>
       </c>
       <c r="F34" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2345,13 +2085,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E35" s="11">
         <v>1</v>
       </c>
       <c r="F35" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2365,293 +2105,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E36" s="11">
         <v>1</v>
       </c>
       <c r="F36" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="10">
-        <v>3</v>
-      </c>
-      <c r="C37" s="11">
-        <v>3</v>
-      </c>
-      <c r="D37" s="11">
-        <v>12</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="10">
-        <v>3</v>
-      </c>
-      <c r="C38" s="11">
-        <v>3</v>
-      </c>
-      <c r="D38" s="11">
-        <v>13</v>
-      </c>
-      <c r="E38" s="11">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>37</v>
-      </c>
-      <c r="B39" s="10">
-        <v>3</v>
-      </c>
-      <c r="C39" s="11">
-        <v>3</v>
-      </c>
-      <c r="D39" s="11">
-        <v>14</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10">
-        <v>3</v>
-      </c>
-      <c r="C40" s="11">
-        <v>3</v>
-      </c>
-      <c r="D40" s="11">
-        <v>15</v>
-      </c>
-      <c r="E40" s="11">
-        <v>1</v>
-      </c>
-      <c r="F40" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>39</v>
-      </c>
-      <c r="B41" s="10">
-        <v>3</v>
-      </c>
-      <c r="C41" s="11">
-        <v>3</v>
-      </c>
-      <c r="D41" s="11">
-        <v>16</v>
-      </c>
-      <c r="E41" s="11">
-        <v>1</v>
-      </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>40</v>
-      </c>
-      <c r="B42" s="10">
-        <v>3</v>
-      </c>
-      <c r="C42" s="11">
-        <v>3</v>
-      </c>
-      <c r="D42" s="11">
-        <v>16</v>
-      </c>
-      <c r="E42" s="11">
-        <v>1</v>
-      </c>
-      <c r="F42" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>41</v>
-      </c>
-      <c r="B43" s="10">
-        <v>3</v>
-      </c>
-      <c r="C43" s="11">
-        <v>3</v>
-      </c>
-      <c r="D43" s="11">
-        <v>17</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1</v>
-      </c>
-      <c r="F43" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>42</v>
-      </c>
-      <c r="B44" s="10">
-        <v>3</v>
-      </c>
-      <c r="C44" s="11">
-        <v>3</v>
-      </c>
-      <c r="D44" s="11">
-        <v>18</v>
-      </c>
-      <c r="E44" s="11">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>43</v>
-      </c>
-      <c r="B45" s="10">
-        <v>3</v>
-      </c>
-      <c r="C45" s="11">
-        <v>3</v>
-      </c>
-      <c r="D45" s="11">
-        <v>19</v>
-      </c>
-      <c r="E45" s="11">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>44</v>
-      </c>
-      <c r="B46" s="10">
-        <v>3</v>
-      </c>
-      <c r="C46" s="11">
-        <v>3</v>
-      </c>
-      <c r="D46" s="11">
-        <v>20</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1</v>
-      </c>
-      <c r="F46" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>45</v>
-      </c>
-      <c r="B47" s="10">
-        <v>3</v>
-      </c>
-      <c r="C47" s="11">
-        <v>3</v>
-      </c>
-      <c r="D47" s="11">
-        <v>21</v>
-      </c>
-      <c r="E47" s="11">
-        <v>1</v>
-      </c>
-      <c r="F47" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>46</v>
-      </c>
-      <c r="B48" s="10">
-        <v>3</v>
-      </c>
-      <c r="C48" s="11">
-        <v>3</v>
-      </c>
-      <c r="D48" s="11">
-        <v>22</v>
-      </c>
-      <c r="E48" s="11">
-        <v>1</v>
-      </c>
-      <c r="F48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>47</v>
-      </c>
-      <c r="B49" s="10">
-        <v>3</v>
-      </c>
-      <c r="C49" s="11">
-        <v>3</v>
-      </c>
-      <c r="D49" s="11">
-        <v>23</v>
-      </c>
-      <c r="E49" s="11">
-        <v>1</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>48</v>
-      </c>
-      <c r="B50" s="10">
-        <v>3</v>
-      </c>
-      <c r="C50" s="11">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11">
-        <v>24</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1</v>
-      </c>
-      <c r="F50" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
